--- a/ig/branch/dev/StructureDefinition-PhenotypicFeature.xlsx
+++ b/ig/branch/dev/StructureDefinition-PhenotypicFeature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1304,7 +1308,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1720,10 +1724,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2199,19 +2203,19 @@
         <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>83</v>
@@ -2222,10 +2226,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2236,7 +2240,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>83</v>
@@ -2245,19 +2249,19 @@
         <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2307,13 +2311,13 @@
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>83</v>
@@ -2342,10 +2346,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2356,7 +2360,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>83</v>
@@ -2365,16 +2369,16 @@
         <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2425,19 +2429,19 @@
         <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>83</v>
@@ -2460,10 +2464,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2474,28 +2478,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2545,19 +2549,19 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>83</v>
@@ -2580,10 +2584,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2594,7 +2598,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>83</v>
@@ -2606,16 +2610,16 @@
         <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2641,13 +2645,13 @@
         <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>83</v>
@@ -2665,19 +2669,19 @@
         <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>83</v>
@@ -2700,21 +2704,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>83</v>
@@ -2726,16 +2730,16 @@
         <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2785,19 +2789,19 @@
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>83</v>
@@ -2809,7 +2813,7 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>83</v>
@@ -2820,14 +2824,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2846,16 +2850,16 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2905,7 +2909,7 @@
         <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2929,7 +2933,7 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>83</v>
@@ -2940,14 +2944,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2966,16 +2970,16 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3025,7 +3029,7 @@
         <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3037,7 +3041,7 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>83</v>
@@ -3049,7 +3053,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3060,14 +3064,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3080,25 +3084,25 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>83</v>
@@ -3147,7 +3151,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3159,7 +3163,7 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>83</v>
@@ -3171,7 +3175,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3182,10 +3186,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3205,20 +3209,20 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3267,7 +3271,7 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3279,22 +3283,22 @@
         <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
@@ -3302,14 +3306,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3325,20 +3329,20 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3387,7 +3391,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3399,19 +3403,19 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3422,14 +3426,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3445,19 +3449,19 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3507,7 +3511,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3519,19 +3523,19 @@
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3542,10 +3546,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3553,34 +3557,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3605,13 +3609,13 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
@@ -3629,34 +3633,34 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3664,10 +3668,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3690,19 +3694,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3727,13 +3731,13 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
@@ -3751,7 +3755,7 @@
         <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3763,7 +3767,7 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -3775,10 +3779,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3786,45 +3790,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3849,13 +3853,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3873,45 +3877,45 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3922,7 +3926,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>83</v>
@@ -3931,22 +3935,22 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3995,34 +3999,34 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4030,10 +4034,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4053,19 +4057,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4115,7 +4119,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4127,7 +4131,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4136,13 +4140,13 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4150,21 +4154,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>83</v>
@@ -4173,22 +4177,22 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4237,34 +4241,34 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4272,21 +4276,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>83</v>
@@ -4295,22 +4299,22 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4359,34 +4363,34 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4394,10 +4398,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4408,7 +4412,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4417,19 +4421,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4479,19 +4483,19 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4500,13 +4504,13 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4514,10 +4518,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4537,20 +4541,20 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4599,7 +4603,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4611,22 +4615,22 @@
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4634,10 +4638,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4645,34 +4649,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
@@ -4721,45 +4725,45 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4770,7 +4774,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -4782,19 +4786,19 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4819,13 +4823,13 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
@@ -4843,19 +4847,19 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>83</v>
@@ -4864,10 +4868,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4878,14 +4882,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4904,19 +4908,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4941,13 +4945,13 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
@@ -4965,7 +4969,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4977,33 +4981,33 @@
         <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5026,19 +5030,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5087,7 +5091,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5099,7 +5103,7 @@
         <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>83</v>
@@ -5108,10 +5112,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5122,10 +5126,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5136,7 +5140,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5148,16 +5152,16 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5183,13 +5187,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5207,45 +5211,45 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5256,7 +5260,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>83</v>
@@ -5268,19 +5272,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5305,13 +5309,13 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5329,19 +5333,19 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>83</v>
@@ -5350,10 +5354,10 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>83</v>
@@ -5364,10 +5368,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5390,16 +5394,16 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5449,45 +5453,45 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5510,16 +5514,16 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5569,45 +5573,45 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5630,19 +5634,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5691,7 +5695,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5703,7 +5707,7 @@
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -5712,10 +5716,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5726,10 +5730,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5740,7 +5744,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5752,13 +5756,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5809,13 +5813,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -5833,7 +5837,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5844,14 +5848,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5870,16 +5874,16 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5929,7 +5933,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5941,7 +5945,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -5953,7 +5957,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5964,14 +5968,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5984,25 +5988,25 @@
         <v>83</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6051,7 +6055,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6063,7 +6067,7 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
@@ -6075,7 +6079,7 @@
         <v>83</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6086,10 +6090,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6100,7 +6104,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6112,13 +6116,13 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6169,19 +6173,19 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6190,10 +6194,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6204,10 +6208,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6218,7 +6222,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6230,13 +6234,13 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6287,19 +6291,19 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6308,10 +6312,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6322,10 +6326,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6336,7 +6340,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6348,19 +6352,19 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6385,13 +6389,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6409,31 +6413,31 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6444,10 +6448,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6470,19 +6474,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6507,13 +6511,13 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
@@ -6531,7 +6535,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6543,19 +6547,19 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6566,10 +6570,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6580,7 +6584,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6592,17 +6596,17 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6651,19 +6655,19 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
@@ -6675,7 +6679,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6686,10 +6690,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6700,7 +6704,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>83</v>
@@ -6712,13 +6716,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6769,19 +6773,19 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6790,10 +6794,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6804,10 +6808,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6827,19 +6831,19 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6889,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6901,7 +6905,7 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -6910,10 +6914,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -6924,10 +6928,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6947,19 +6951,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7009,7 +7013,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7021,7 +7025,7 @@
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7030,10 +7034,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7044,10 +7048,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7061,28 +7065,28 @@
         <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7119,19 +7123,19 @@
         <v>83</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7143,7 +7147,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7152,10 +7156,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7166,10 +7170,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7180,7 +7184,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7192,13 +7196,13 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7249,13 +7253,13 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
@@ -7273,7 +7277,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7284,14 +7288,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7310,16 +7314,16 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7369,7 +7373,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7381,7 +7385,7 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7393,7 +7397,7 @@
         <v>83</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7404,14 +7408,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7424,25 +7428,25 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7491,7 +7495,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7503,7 +7507,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7515,7 +7519,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7526,10 +7530,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7537,10 +7541,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7549,22 +7553,22 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7589,13 +7593,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7613,34 +7617,34 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -7648,10 +7652,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7662,7 +7666,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7671,22 +7675,22 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7735,45 +7739,45 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7784,7 +7788,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7796,19 +7800,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7833,13 +7837,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7857,19 +7861,19 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7878,10 +7882,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7892,14 +7896,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7918,19 +7922,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7955,13 +7959,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -7979,7 +7983,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7991,33 +7995,33 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8043,16 +8047,16 @@
         <v>84</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8101,7 +8105,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8113,7 +8117,7 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8122,10 +8126,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8136,13 +8140,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>83</v>
@@ -8152,7 +8156,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8161,22 +8165,22 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8225,7 +8229,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8237,7 +8241,7 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8246,10 +8250,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8260,10 +8264,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8274,7 +8278,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8286,13 +8290,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8343,13 +8347,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8367,7 +8371,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8378,14 +8382,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8404,16 +8408,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8463,7 +8467,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8475,7 +8479,7 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
@@ -8487,7 +8491,7 @@
         <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8498,14 +8502,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8518,25 +8522,25 @@
         <v>83</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8585,7 +8589,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8597,7 +8601,7 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
@@ -8609,7 +8613,7 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8620,10 +8624,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8631,10 +8635,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8643,22 +8647,22 @@
         <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8683,13 +8687,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8707,34 +8711,34 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -8742,10 +8746,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8756,7 +8760,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -8768,13 +8772,13 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8825,13 +8829,13 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>83</v>
@@ -8849,7 +8853,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8860,14 +8864,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8886,16 +8890,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8933,19 +8937,19 @@
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8957,7 +8961,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -8969,7 +8973,7 @@
         <v>83</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -8980,10 +8984,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8991,7 +8995,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>82</v>
@@ -9003,22 +9007,22 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9028,7 +9032,7 @@
         <v>83</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>83</v>
@@ -9067,7 +9071,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9079,7 +9083,7 @@
         <v>83</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>83</v>
@@ -9088,10 +9092,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9102,10 +9106,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9116,7 +9120,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>83</v>
@@ -9125,22 +9129,22 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9189,19 +9193,19 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>83</v>
@@ -9210,10 +9214,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9224,10 +9228,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9238,7 +9242,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9247,22 +9251,22 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9287,11 +9291,11 @@
         <v>83</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -9309,45 +9313,45 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9358,7 +9362,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>83</v>
@@ -9370,19 +9374,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9407,13 +9411,13 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
@@ -9431,19 +9435,19 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>83</v>
@@ -9452,10 +9456,10 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9466,14 +9470,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9492,19 +9496,19 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9529,13 +9533,13 @@
         <v>83</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -9553,7 +9557,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9565,33 +9569,33 @@
         <v>83</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9617,16 +9621,16 @@
         <v>84</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -9675,7 +9679,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9687,7 +9691,7 @@
         <v>83</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>83</v>
@@ -9696,10 +9700,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9710,13 +9714,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -9735,22 +9739,22 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -9799,7 +9803,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9811,7 +9815,7 @@
         <v>83</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>83</v>
@@ -9820,10 +9824,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9834,10 +9838,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9848,7 +9852,7 @@
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>83</v>
@@ -9860,13 +9864,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9917,13 +9921,13 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>83</v>
@@ -9941,7 +9945,7 @@
         <v>83</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -9952,14 +9956,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9978,16 +9982,16 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10037,7 +10041,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10049,7 +10053,7 @@
         <v>83</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>83</v>
@@ -10061,7 +10065,7 @@
         <v>83</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10072,14 +10076,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10092,25 +10096,25 @@
         <v>83</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10159,7 +10163,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10171,7 +10175,7 @@
         <v>83</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>83</v>
@@ -10183,7 +10187,7 @@
         <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10194,10 +10198,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10205,10 +10209,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>83</v>
@@ -10217,22 +10221,22 @@
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>83</v>
@@ -10257,13 +10261,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10281,34 +10285,34 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>83</v>
@@ -10316,10 +10320,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10330,7 +10334,7 @@
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>83</v>
@@ -10342,13 +10346,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10399,13 +10403,13 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>83</v>
@@ -10423,7 +10427,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10434,14 +10438,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10460,16 +10464,16 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10507,19 +10511,19 @@
         <v>83</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10531,7 +10535,7 @@
         <v>83</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>83</v>
@@ -10543,7 +10547,7 @@
         <v>83</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>83</v>
@@ -10554,10 +10558,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10565,7 +10569,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>82</v>
@@ -10577,22 +10581,22 @@
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10602,7 +10606,7 @@
         <v>83</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>83</v>
@@ -10641,7 +10645,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10653,7 +10657,7 @@
         <v>83</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>83</v>
@@ -10662,10 +10666,10 @@
         <v>83</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>83</v>
@@ -10676,10 +10680,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10690,7 +10694,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>83</v>
@@ -10699,22 +10703,22 @@
         <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -10763,19 +10767,19 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>83</v>
@@ -10784,10 +10788,10 @@
         <v>83</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -10798,10 +10802,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10812,7 +10816,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>83</v>
@@ -10821,22 +10825,22 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10861,11 +10865,11 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -10883,45 +10887,45 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10932,7 +10936,7 @@
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>83</v>
@@ -10944,19 +10948,19 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -10981,13 +10985,13 @@
         <v>83</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11005,19 +11009,19 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -11026,10 +11030,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11040,14 +11044,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11066,19 +11070,19 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -11103,13 +11107,13 @@
         <v>83</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>83</v>
@@ -11127,7 +11131,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11139,33 +11143,33 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11191,16 +11195,16 @@
         <v>84</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -11249,7 +11253,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11261,7 +11265,7 @@
         <v>83</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>83</v>
@@ -11270,10 +11274,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
